--- a/P4/Ejercicio5.xlsx
+++ b/P4/Ejercicio5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="29">
   <si>
     <t>Proceso</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>15(FIN)</t>
-  </si>
-  <si>
-    <t>?=tiempo que el proceso termino pero el Q no</t>
   </si>
   <si>
     <t>Q=Quantum</t>
@@ -817,7 +814,7 @@
   <dimension ref="A1:BE108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3072,7 +3069,7 @@
     </row>
     <row r="63" spans="1:56">
       <c r="A63" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3160,11 +3157,11 @@
     </row>
     <row r="64" spans="1:56">
       <c r="A64" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="12">
@@ -3242,9 +3239,7 @@
       <c r="BA64" s="6"/>
     </row>
     <row r="65" spans="1:53">
-      <c r="A65" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -4206,7 +4201,7 @@
         <v>14</v>
       </c>
       <c r="AY88" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ88" s="44"/>
       <c r="BA88" s="44"/>
@@ -4561,7 +4556,7 @@
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="12">
@@ -4645,9 +4640,7 @@
       <c r="BE93" s="6"/>
     </row>
     <row r="94" spans="1:57">
-      <c r="A94" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
